--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cort-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cort-Sstr2.xlsx
@@ -537,13 +537,13 @@
         <v>0.217038</v>
       </c>
       <c r="H2">
-        <v>0.6511140000000001</v>
+        <v>0.651114</v>
       </c>
       <c r="I2">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="J2">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3188423333333334</v>
+        <v>0.097952</v>
       </c>
       <c r="N2">
-        <v>0.9565270000000001</v>
+        <v>0.293856</v>
       </c>
       <c r="O2">
-        <v>0.7196136389454593</v>
+        <v>0.3056806443660103</v>
       </c>
       <c r="P2">
-        <v>0.719613638945459</v>
+        <v>0.3056806443660104</v>
       </c>
       <c r="Q2">
-        <v>0.06920090234200002</v>
+        <v>0.021259306176</v>
       </c>
       <c r="R2">
-        <v>0.6228081210780002</v>
+        <v>0.191333755584</v>
       </c>
       <c r="S2">
-        <v>0.5069636582582171</v>
+        <v>0.2620426822879655</v>
       </c>
       <c r="T2">
-        <v>0.506963658258217</v>
+        <v>0.2620426822879655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,13 +599,13 @@
         <v>0.217038</v>
       </c>
       <c r="H3">
-        <v>0.6511140000000001</v>
+        <v>0.651114</v>
       </c>
       <c r="I3">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="J3">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.350964</v>
       </c>
       <c r="O3">
-        <v>0.2640369599382496</v>
+        <v>0.3650866467564809</v>
       </c>
       <c r="P3">
-        <v>0.2640369599382496</v>
+        <v>0.3650866467564809</v>
       </c>
       <c r="Q3">
         <v>0.025390841544</v>
@@ -632,10 +632,10 @@
         <v>0.228517573896</v>
       </c>
       <c r="S3">
-        <v>0.18601251544069</v>
+        <v>0.3129680794215994</v>
       </c>
       <c r="T3">
-        <v>0.18601251544069</v>
+        <v>0.3129680794215995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,43 +661,43 @@
         <v>0.217038</v>
       </c>
       <c r="H4">
-        <v>0.6511140000000001</v>
+        <v>0.651114</v>
       </c>
       <c r="I4">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="J4">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.007244</v>
+        <v>0.105499</v>
       </c>
       <c r="N4">
-        <v>0.021732</v>
+        <v>0.316497</v>
       </c>
       <c r="O4">
-        <v>0.01634940111629125</v>
+        <v>0.3292327088775087</v>
       </c>
       <c r="P4">
-        <v>0.01634940111629124</v>
+        <v>0.3292327088775087</v>
       </c>
       <c r="Q4">
-        <v>0.001572223272</v>
+        <v>0.022897291962</v>
       </c>
       <c r="R4">
-        <v>0.014150009448</v>
+        <v>0.206075627658</v>
       </c>
       <c r="S4">
-        <v>0.01151805879109275</v>
+        <v>0.2822325316348627</v>
       </c>
       <c r="T4">
-        <v>0.01151805879109274</v>
+        <v>0.2822325316348628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09103833333333333</v>
+        <v>0.03614333333333333</v>
       </c>
       <c r="H5">
-        <v>0.273115</v>
+        <v>0.10843</v>
       </c>
       <c r="I5">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="J5">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3188423333333334</v>
+        <v>0.097952</v>
       </c>
       <c r="N5">
-        <v>0.9565270000000001</v>
+        <v>0.293856</v>
       </c>
       <c r="O5">
-        <v>0.7196136389454593</v>
+        <v>0.3056806443660103</v>
       </c>
       <c r="P5">
-        <v>0.719613638945459</v>
+        <v>0.3056806443660104</v>
       </c>
       <c r="Q5">
-        <v>0.02902687462277778</v>
+        <v>0.003540311786666667</v>
       </c>
       <c r="R5">
-        <v>0.261241871605</v>
+        <v>0.03186280608</v>
       </c>
       <c r="S5">
-        <v>0.2126499806872421</v>
+        <v>0.04363796207804486</v>
       </c>
       <c r="T5">
-        <v>0.212649980687242</v>
+        <v>0.04363796207804486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.09103833333333333</v>
+        <v>0.03614333333333333</v>
       </c>
       <c r="H6">
-        <v>0.273115</v>
+        <v>0.10843</v>
       </c>
       <c r="I6">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="J6">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.350964</v>
       </c>
       <c r="O6">
-        <v>0.2640369599382496</v>
+        <v>0.3650866467564809</v>
       </c>
       <c r="P6">
-        <v>0.2640369599382496</v>
+        <v>0.3650866467564809</v>
       </c>
       <c r="Q6">
-        <v>0.01065039254</v>
+        <v>0.00422833628</v>
       </c>
       <c r="R6">
-        <v>0.09585353285999999</v>
+        <v>0.03805502652</v>
       </c>
       <c r="S6">
-        <v>0.07802444449755962</v>
+        <v>0.05211856733488149</v>
       </c>
       <c r="T6">
-        <v>0.07802444449755962</v>
+        <v>0.0521185673348815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.09103833333333333</v>
+        <v>0.03614333333333333</v>
       </c>
       <c r="H7">
-        <v>0.273115</v>
+        <v>0.10843</v>
       </c>
       <c r="I7">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="J7">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.007244</v>
+        <v>0.105499</v>
       </c>
       <c r="N7">
-        <v>0.021732</v>
+        <v>0.316497</v>
       </c>
       <c r="O7">
-        <v>0.01634940111629125</v>
+        <v>0.3292327088775087</v>
       </c>
       <c r="P7">
-        <v>0.01634940111629124</v>
+        <v>0.3292327088775087</v>
       </c>
       <c r="Q7">
-        <v>0.0006594816866666666</v>
+        <v>0.003813085523333334</v>
       </c>
       <c r="R7">
-        <v>0.005935335179999999</v>
+        <v>0.03431776971</v>
       </c>
       <c r="S7">
-        <v>0.004831342325198499</v>
+        <v>0.04700017724264594</v>
       </c>
       <c r="T7">
-        <v>0.004831342325198498</v>
+        <v>0.04700017724264595</v>
       </c>
     </row>
   </sheetData>
